--- a/A1_code_skeleton/polynomial_regression.xlsx
+++ b/A1_code_skeleton/polynomial_regression.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicgoj/coding/aie/ml/ass1/A1_code_skeleton/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD4D923-9FAA-6343-8FFA-FEF90BEB26ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3929CF-336E-9942-85AA-5EA713BDBFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="680" windowWidth="26740" windowHeight="17340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$225</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="216">
   <si>
     <t>xlabel</t>
   </si>
@@ -802,18 +801,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -843,13 +836,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1157,14 +1146,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F225" sqref="A1:F225"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D195" sqref="D195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -5024,7 +5013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5044,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5064,7 +5053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5084,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5104,7 +5093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5124,7 +5113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5144,7 +5133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5164,7 +5153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5504,9 +5493,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>51</v>
@@ -5515,18 +5504,18 @@
         <v>60</v>
       </c>
       <c r="D218" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="E218">
-        <v>16397.529334256771</v>
+        <v>89207.161900000006</v>
       </c>
       <c r="F218">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>51</v>
@@ -5535,18 +5524,18 @@
         <v>60</v>
       </c>
       <c r="D219" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E219">
-        <v>16878.39026633164</v>
+        <v>18419.97856742037</v>
       </c>
       <c r="F219">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>51</v>
@@ -5555,18 +5544,18 @@
         <v>60</v>
       </c>
       <c r="D220" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E220">
-        <v>16895.44237419702</v>
+        <v>18319.06730364672</v>
       </c>
       <c r="F220">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>51</v>
@@ -5575,18 +5564,18 @@
         <v>60</v>
       </c>
       <c r="D221" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E221">
-        <v>18233.991079994368</v>
+        <v>18295.419590516511</v>
       </c>
       <c r="F221">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>51</v>
@@ -5595,18 +5584,18 @@
         <v>60</v>
       </c>
       <c r="D222" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E222">
-        <v>18295.419590516511</v>
+        <v>18233.991079994368</v>
       </c>
       <c r="F222">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>51</v>
@@ -5615,18 +5604,18 @@
         <v>60</v>
       </c>
       <c r="D223" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E223">
-        <v>18319.06730364672</v>
+        <v>16895.44237419702</v>
       </c>
       <c r="F223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>51</v>
@@ -5635,18 +5624,18 @@
         <v>60</v>
       </c>
       <c r="D224" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E224">
-        <v>18419.97856742037</v>
+        <v>16878.39026633164</v>
       </c>
       <c r="F224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>51</v>
@@ -5655,20 +5644,20 @@
         <v>60</v>
       </c>
       <c r="D225" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="E225">
-        <v>89207.161900000006</v>
+        <v>16397.529334256771</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F225" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Fitness level"/>
+        <filter val="Duration"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -5676,556 +5665,7 @@
         <filter val="Calories"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A218:F225">
-      <sortCondition ref="E1:E225"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0D7480-408A-3A4E-A09A-6E3811006EC3}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2">
-        <v>2.4236</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>185</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.19836859809302221</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>186</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4">
-        <v>0.15335211288102321</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>187</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.1353854413858285</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>188</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6">
-        <v>0.13528282539049569</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>189</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7">
-        <v>0.12956626785507311</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>190</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8">
-        <v>0.1166190019472015</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>191</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9">
-        <v>0.16428759973724691</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>192</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12">
-        <v>89207.161900000006</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>193</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13">
-        <v>21843.02631680113</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>194</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14">
-        <v>21498.68907560972</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>195</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="2">
-        <v>20723.522540844191</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>196</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16">
-        <v>20717.562078722491</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>197</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E17">
-        <v>20357.560847618239</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>198</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18">
-        <v>19254.710537881921</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>199</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19">
-        <v>20276.176719586521</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>223</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22">
-        <v>16397.529334256771</v>
-      </c>
-      <c r="F22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>222</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>214</v>
-      </c>
-      <c r="E23">
-        <v>16878.39026633164</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>221</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E24" s="2">
-        <v>16895.44237419702</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>220</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25">
-        <v>18233.991079994368</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>219</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>211</v>
-      </c>
-      <c r="E26">
-        <v>18295.419590516511</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>218</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27">
-        <v>18319.06730364672</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>217</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28">
-        <v>18419.97856742037</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>216</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29">
-        <v>89207.161900000006</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>